--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1156.439271690278</v>
+        <v>1260.03968523608</v>
       </c>
       <c r="AB2" t="n">
-        <v>1582.291230026601</v>
+        <v>1724.041886367641</v>
       </c>
       <c r="AC2" t="n">
-        <v>1431.27957579255</v>
+        <v>1559.501748440697</v>
       </c>
       <c r="AD2" t="n">
-        <v>1156439.271690278</v>
+        <v>1260039.68523608</v>
       </c>
       <c r="AE2" t="n">
-        <v>1582291.230026601</v>
+        <v>1724041.886367641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28798443355962e-06</v>
+        <v>1.856841323930548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.59700520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1431279.57579255</v>
+        <v>1559501.748440697</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.7049080795988</v>
+        <v>619.1385721565343</v>
       </c>
       <c r="AB3" t="n">
-        <v>764.4447035554613</v>
+        <v>847.1327088906163</v>
       </c>
       <c r="AC3" t="n">
-        <v>691.4871739530072</v>
+        <v>766.2835521123195</v>
       </c>
       <c r="AD3" t="n">
-        <v>558704.9080795988</v>
+        <v>619138.5721565343</v>
       </c>
       <c r="AE3" t="n">
-        <v>764444.7035554613</v>
+        <v>847132.7088906163</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.023988876455632e-06</v>
+        <v>2.917912737960595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.01627604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>691487.1739530072</v>
+        <v>766283.5521123195</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.0585601634332</v>
+        <v>490.8588564448852</v>
       </c>
       <c r="AB4" t="n">
-        <v>600.739291912226</v>
+        <v>671.6147425522944</v>
       </c>
       <c r="AC4" t="n">
-        <v>543.4055770350141</v>
+        <v>607.5167741403141</v>
       </c>
       <c r="AD4" t="n">
-        <v>439058.5601634332</v>
+        <v>490858.8564448853</v>
       </c>
       <c r="AE4" t="n">
-        <v>600739.291912226</v>
+        <v>671614.7425522944</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.312023090122282e-06</v>
+        <v>3.333161413881273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.14453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>543405.5770350141</v>
+        <v>607516.7741403141</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>389.2380085892701</v>
+        <v>440.9529640161504</v>
       </c>
       <c r="AB5" t="n">
-        <v>532.5726153208424</v>
+        <v>603.3312988387132</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.7446323849806</v>
+        <v>545.7502064583418</v>
       </c>
       <c r="AD5" t="n">
-        <v>389238.0085892701</v>
+        <v>440952.9640161503</v>
       </c>
       <c r="AE5" t="n">
-        <v>532572.6153208424</v>
+        <v>603331.2988387132</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.431718345201907e-06</v>
+        <v>3.505721803680399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>481744.6323849806</v>
+        <v>545750.2064583418</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>390.6357091632185</v>
+        <v>442.3506645900989</v>
       </c>
       <c r="AB6" t="n">
-        <v>534.4850109083161</v>
+        <v>605.2436944261868</v>
       </c>
       <c r="AC6" t="n">
-        <v>483.4745116216499</v>
+        <v>547.4800856950111</v>
       </c>
       <c r="AD6" t="n">
-        <v>390635.7091632185</v>
+        <v>442350.6645900989</v>
       </c>
       <c r="AE6" t="n">
-        <v>534485.0109083161</v>
+        <v>605243.6944261868</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.431438247101097e-06</v>
+        <v>3.505317996215972e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>483474.5116216499</v>
+        <v>547480.0856950111</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.9236488781935</v>
+        <v>895.3446262740835</v>
       </c>
       <c r="AB2" t="n">
-        <v>1098.59555888654</v>
+        <v>1225.050017485356</v>
       </c>
       <c r="AC2" t="n">
-        <v>993.7471406349584</v>
+        <v>1108.132963185051</v>
       </c>
       <c r="AD2" t="n">
-        <v>802923.6488781935</v>
+        <v>895344.6262740835</v>
       </c>
       <c r="AE2" t="n">
-        <v>1098595.55888654</v>
+        <v>1225050.017485356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.587968050191712e-06</v>
+        <v>2.324725487785436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.80143229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>993747.1406349584</v>
+        <v>1108132.963185051</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>434.2156282888803</v>
+        <v>493.1375931739016</v>
       </c>
       <c r="AB3" t="n">
-        <v>594.1129788663874</v>
+        <v>674.732610675704</v>
       </c>
       <c r="AC3" t="n">
-        <v>537.4116700061816</v>
+        <v>610.3370773059808</v>
       </c>
       <c r="AD3" t="n">
-        <v>434215.6282888803</v>
+        <v>493137.5931739016</v>
       </c>
       <c r="AE3" t="n">
-        <v>594112.9788663874</v>
+        <v>674732.610675704</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.281261320934131e-06</v>
+        <v>3.339680755185464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78255208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>537411.6700061816</v>
+        <v>610337.0773059807</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.3578759506931</v>
+        <v>423.1944999811427</v>
       </c>
       <c r="AB4" t="n">
-        <v>498.5305202107567</v>
+        <v>579.0333848978754</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.9514670538209</v>
+        <v>523.7712513216812</v>
       </c>
       <c r="AD4" t="n">
-        <v>364357.8759506931</v>
+        <v>423194.4999811427</v>
       </c>
       <c r="AE4" t="n">
-        <v>498530.5202107567</v>
+        <v>579033.3848978754</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485540405305852e-06</v>
+        <v>3.638737649940418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.64973958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>450951.4670538208</v>
+        <v>523771.2513216812</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.8155956129538</v>
+        <v>424.6522196434033</v>
       </c>
       <c r="AB5" t="n">
-        <v>500.5250365627143</v>
+        <v>581.0279012498331</v>
       </c>
       <c r="AC5" t="n">
-        <v>452.755629564469</v>
+        <v>525.5754138323293</v>
       </c>
       <c r="AD5" t="n">
-        <v>365815.5956129538</v>
+        <v>424652.2196434033</v>
       </c>
       <c r="AE5" t="n">
-        <v>500525.0365627143</v>
+        <v>581027.9012498332</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.485347233594862e-06</v>
+        <v>3.638454853822447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.64973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>452755.629564469</v>
+        <v>525575.4138323293</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.2976896591643</v>
+        <v>389.5834594528227</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.7690912817499</v>
+        <v>533.0452764325715</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.9848130962826</v>
+        <v>482.1721833835904</v>
       </c>
       <c r="AD2" t="n">
-        <v>335297.6896591643</v>
+        <v>389583.4594528227</v>
       </c>
       <c r="AE2" t="n">
-        <v>458769.0912817499</v>
+        <v>533045.2764325716</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.49931951104663e-06</v>
+        <v>3.86675578188209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.03645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>414984.8130962825</v>
+        <v>482172.1833835904</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.259564726586</v>
+        <v>391.5453345202444</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.4534153008158</v>
+        <v>535.7296004516375</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.4129489984412</v>
+        <v>484.6003192857491</v>
       </c>
       <c r="AD3" t="n">
-        <v>337259.564726586</v>
+        <v>391545.3345202444</v>
       </c>
       <c r="AE3" t="n">
-        <v>461453.4153008158</v>
+        <v>535729.6004516374</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.498565080836309e-06</v>
+        <v>3.865588585225205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>417412.9489984412</v>
+        <v>484600.3192857491</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.4960948860012</v>
+        <v>510.4972267793657</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.9156550405179</v>
+        <v>698.4848272276832</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.6107223489571</v>
+        <v>631.8224156466846</v>
       </c>
       <c r="AD2" t="n">
-        <v>446496.0948860012</v>
+        <v>510497.2267793657</v>
       </c>
       <c r="AE2" t="n">
-        <v>610915.6550405179</v>
+        <v>698484.8272276833</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.186458087773442e-06</v>
+        <v>3.304380920297611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>552610.7223489571</v>
+        <v>631822.4156466846</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.6120421275671</v>
+        <v>397.591708509187</v>
       </c>
       <c r="AB3" t="n">
-        <v>467.4086668985892</v>
+        <v>544.0025160905031</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.7998397419711</v>
+        <v>492.0836794671514</v>
       </c>
       <c r="AD3" t="n">
-        <v>341612.0421275671</v>
+        <v>397591.708509187</v>
       </c>
       <c r="AE3" t="n">
-        <v>467408.6668985892</v>
+        <v>544002.5160905032</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526706682022822e-06</v>
+        <v>3.818596568556694e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28450520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>422799.8397419712</v>
+        <v>492083.6794671514</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.1015282373832</v>
+        <v>391.0132992059223</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.6054269210971</v>
+        <v>535.0016462628406</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.4550142465412</v>
+        <v>483.9418400230408</v>
       </c>
       <c r="AD2" t="n">
-        <v>338101.5282373832</v>
+        <v>391013.2992059223</v>
       </c>
       <c r="AE2" t="n">
-        <v>462605.4269210971</v>
+        <v>535001.6462628406</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.419681147577708e-06</v>
+        <v>3.824276994204803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>418455.0142465412</v>
+        <v>483941.8400230408</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>880.2186126677634</v>
+        <v>973.3492809900353</v>
       </c>
       <c r="AB2" t="n">
-        <v>1204.353938356565</v>
+        <v>1331.77942739021</v>
       </c>
       <c r="AC2" t="n">
-        <v>1089.412088801182</v>
+        <v>1204.676268004254</v>
       </c>
       <c r="AD2" t="n">
-        <v>880218.6126677634</v>
+        <v>973349.2809900353</v>
       </c>
       <c r="AE2" t="n">
-        <v>1204353.938356565</v>
+        <v>1331779.427390211</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508136458428663e-06</v>
+        <v>2.198691464546145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.66080729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1089412.088801182</v>
+        <v>1204676.268004254</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.6369559278616</v>
+        <v>527.8709831489234</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.2097579038424</v>
+        <v>722.2563671685481</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.0135985530463</v>
+        <v>653.325233179159</v>
       </c>
       <c r="AD3" t="n">
-        <v>468636.9559278616</v>
+        <v>527870.9831489234</v>
       </c>
       <c r="AE3" t="n">
-        <v>641209.7579038424</v>
+        <v>722256.3671685481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.213101234788596e-06</v>
+        <v>3.226449946164725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.07877604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>580013.5985530464</v>
+        <v>653325.233179159</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.2089915393158</v>
+        <v>431.4429292518265</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.2727629258846</v>
+        <v>590.3192497210418</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.6684852010494</v>
+        <v>533.9800090459355</v>
       </c>
       <c r="AD4" t="n">
-        <v>372208.9915393158</v>
+        <v>431442.9292518265</v>
       </c>
       <c r="AE4" t="n">
-        <v>509272.7629258846</v>
+        <v>590319.2497210419</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.464648747656744e-06</v>
+        <v>3.593177616184227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>460668.4852010494</v>
+        <v>533980.0090459355</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.4028447744175</v>
+        <v>431.6367824869282</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.5380014743519</v>
+        <v>590.5844882695092</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.9084097547156</v>
+        <v>534.2199335996017</v>
       </c>
       <c r="AD5" t="n">
-        <v>372402.8447744175</v>
+        <v>431636.7824869282</v>
       </c>
       <c r="AE5" t="n">
-        <v>509538.0014743519</v>
+        <v>590584.4882695092</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.467616012838978e-06</v>
+        <v>3.597503551408962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.626953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>460908.4097547156</v>
+        <v>534219.9335996017</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.645990523795</v>
+        <v>406.393566644046</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.7186283582329</v>
+        <v>556.0456067011925</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.3665347044138</v>
+        <v>502.9773944125404</v>
       </c>
       <c r="AD2" t="n">
-        <v>339645.990523795</v>
+        <v>406393.566644046</v>
       </c>
       <c r="AE2" t="n">
-        <v>464718.6283582329</v>
+        <v>556045.6067011924</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.330777384978183e-06</v>
+        <v>3.73445286493065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.99934895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>420366.5347044138</v>
+        <v>502977.3944125404</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.0940216697757</v>
+        <v>683.0223448669396</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.3893117803408</v>
+        <v>934.5413050661356</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.8518055332695</v>
+        <v>845.3499945475824</v>
       </c>
       <c r="AD2" t="n">
-        <v>609094.0216697757</v>
+        <v>683022.3448669397</v>
       </c>
       <c r="AE2" t="n">
-        <v>833389.3117803407</v>
+        <v>934541.3050661356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.856222712227052e-06</v>
+        <v>2.756199666607556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.451171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>753851.8055332695</v>
+        <v>845349.9945475823</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.5314951642359</v>
+        <v>409.0786440634746</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.980900158742</v>
+        <v>559.7194480837102</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.076758108524</v>
+        <v>506.3006095297793</v>
       </c>
       <c r="AD3" t="n">
-        <v>351531.4951642359</v>
+        <v>409078.6440634746</v>
       </c>
       <c r="AE3" t="n">
-        <v>480980.900158742</v>
+        <v>559719.4480837102</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.501268314578189e-06</v>
+        <v>3.713991241096925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>435076.758108524</v>
+        <v>506300.6095297793</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.4741615294161</v>
+        <v>406.0213104286548</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.7977213995409</v>
+        <v>555.536269324509</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.2928160589728</v>
+        <v>502.5166674802282</v>
       </c>
       <c r="AD4" t="n">
-        <v>348474.1615294161</v>
+        <v>406021.3104286548</v>
       </c>
       <c r="AE4" t="n">
-        <v>476797.7213995409</v>
+        <v>555536.2693245091</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518384612573313e-06</v>
+        <v>3.739406259735026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>431292.8160589729</v>
+        <v>502516.6674802282</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.4161751087905</v>
+        <v>814.9158954706859</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000.755878588146</v>
+        <v>1115.003879734968</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.24514210539</v>
+        <v>1008.589474370836</v>
       </c>
       <c r="AD2" t="n">
-        <v>731416.1751087905</v>
+        <v>814915.8954706859</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000755.878588146</v>
+        <v>1115003.879734968</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.671596013788852e-06</v>
+        <v>2.457985786639654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.98763020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>905245.14210539</v>
+        <v>1008589.474370836</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.6922866192568</v>
+        <v>466.0312372701915</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.8225726667577</v>
+        <v>637.6444986802242</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.5847692403394</v>
+        <v>576.7886026658574</v>
       </c>
       <c r="AD3" t="n">
-        <v>407692.2866192568</v>
+        <v>466031.2372701915</v>
       </c>
       <c r="AE3" t="n">
-        <v>557822.5726667576</v>
+        <v>637644.4986802242</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.357141485846098e-06</v>
+        <v>3.46604097013612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.466796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>504584.7692403393</v>
+        <v>576788.6026658574</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.1334931595819</v>
+        <v>418.5576951565372</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.7505333093426</v>
+        <v>572.6891039754586</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.7231139900152</v>
+        <v>518.0324596662456</v>
       </c>
       <c r="AD4" t="n">
-        <v>360133.4931595819</v>
+        <v>418557.6951565372</v>
       </c>
       <c r="AE4" t="n">
-        <v>492750.5333093426</v>
+        <v>572689.1039754585</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492768530595299e-06</v>
+        <v>3.665472738055844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.73111979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>445723.1139900152</v>
+        <v>518032.4596662456</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1056.568076235866</v>
+        <v>1159.466677881244</v>
       </c>
       <c r="AB2" t="n">
-        <v>1445.643054399691</v>
+        <v>1586.433460736816</v>
       </c>
       <c r="AC2" t="n">
-        <v>1307.672910260553</v>
+        <v>1435.026477817439</v>
       </c>
       <c r="AD2" t="n">
-        <v>1056568.076235866</v>
+        <v>1159466.677881244</v>
       </c>
       <c r="AE2" t="n">
-        <v>1445643.054399691</v>
+        <v>1586433.460736816</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.357853779703477e-06</v>
+        <v>1.964505516546746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.56184895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1307672.910260553</v>
+        <v>1435026.477817439</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.8797163324681</v>
+        <v>590.45033714453</v>
       </c>
       <c r="AB3" t="n">
-        <v>714.0588515942364</v>
+        <v>807.8802001115872</v>
       </c>
       <c r="AC3" t="n">
-        <v>645.9100769859743</v>
+        <v>730.7772476799189</v>
       </c>
       <c r="AD3" t="n">
-        <v>521879.7163324681</v>
+        <v>590450.3371445299</v>
       </c>
       <c r="AE3" t="n">
-        <v>714058.8515942364</v>
+        <v>807880.2001115872</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.086001457383391e-06</v>
+        <v>3.017969557406336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>645910.0769859743</v>
+        <v>730777.2476799189</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>408.5895333250169</v>
+        <v>468.5781589287495</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.0502251933094</v>
+        <v>641.1293092557166</v>
       </c>
       <c r="AC4" t="n">
-        <v>505.6952563327782</v>
+        <v>579.9408278109872</v>
       </c>
       <c r="AD4" t="n">
-        <v>408589.5333250168</v>
+        <v>468578.1589287495</v>
       </c>
       <c r="AE4" t="n">
-        <v>559050.2251933094</v>
+        <v>641129.3092557166</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.368150447648919e-06</v>
+        <v>3.426174959305916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>505695.2563327782</v>
+        <v>579940.8278109872</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.3319136971138</v>
+        <v>433.9092258016605</v>
       </c>
       <c r="AB5" t="n">
-        <v>523.1233916139906</v>
+        <v>593.6937454658495</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.197229326642</v>
+        <v>537.0324476529933</v>
       </c>
       <c r="AD5" t="n">
-        <v>382331.9136971138</v>
+        <v>433909.2258016604</v>
       </c>
       <c r="AE5" t="n">
-        <v>523123.3916139906</v>
+        <v>593693.7454658495</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.448145991920332e-06</v>
+        <v>3.541910313413536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>473197.229326642</v>
+        <v>537032.4476529933</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>501.298612025862</v>
+        <v>565.9798345454329</v>
       </c>
       <c r="AB2" t="n">
-        <v>685.8988767076978</v>
+        <v>774.3985788931197</v>
       </c>
       <c r="AC2" t="n">
-        <v>620.4376505798339</v>
+        <v>700.4910653987913</v>
       </c>
       <c r="AD2" t="n">
-        <v>501298.612025862</v>
+        <v>565979.8345454329</v>
       </c>
       <c r="AE2" t="n">
-        <v>685898.8767076978</v>
+        <v>774398.5788931197</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.066340014431256e-06</v>
+        <v>3.102991007035887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.03841145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>620437.6505798339</v>
+        <v>700491.0653987913</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.289548610564</v>
+        <v>394.8644935183086</v>
       </c>
       <c r="AB3" t="n">
-        <v>473.8086376256475</v>
+        <v>540.2710202237494</v>
       </c>
       <c r="AC3" t="n">
-        <v>428.5890062452544</v>
+        <v>488.7083123287333</v>
       </c>
       <c r="AD3" t="n">
-        <v>346289.548610564</v>
+        <v>394864.4935183086</v>
       </c>
       <c r="AE3" t="n">
-        <v>473808.6376256475</v>
+        <v>540271.0202237493</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524406716817371e-06</v>
+        <v>3.79086272621078e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.12825520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>428589.0062452544</v>
+        <v>488708.3123287333</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.3343948157202</v>
+        <v>408.2564874142627</v>
       </c>
       <c r="AB2" t="n">
-        <v>483.4477070002218</v>
+        <v>558.5945370852669</v>
       </c>
       <c r="AC2" t="n">
-        <v>437.3081363672383</v>
+        <v>505.2830584582051</v>
       </c>
       <c r="AD2" t="n">
-        <v>353334.3948157202</v>
+        <v>408256.4874142627</v>
       </c>
       <c r="AE2" t="n">
-        <v>483447.7070002218</v>
+        <v>558594.5370852669</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.453539182951796e-06</v>
+        <v>3.763107745106246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.072265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>437308.1363672382</v>
+        <v>505283.0584582051</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.1638188630488</v>
+        <v>387.1711628076119</v>
       </c>
       <c r="AB3" t="n">
-        <v>454.4811910018829</v>
+        <v>529.7446657395772</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.1061440010201</v>
+        <v>479.1865783426992</v>
       </c>
       <c r="AD3" t="n">
-        <v>332163.8188630488</v>
+        <v>387171.1628076119</v>
       </c>
       <c r="AE3" t="n">
-        <v>454481.1910018829</v>
+        <v>529744.6657395771</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.52024948579941e-06</v>
+        <v>3.865424455215688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>411106.1440010201</v>
+        <v>479186.5783426992</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.4282445377773</v>
+        <v>386.0208138223966</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.8429898756837</v>
+        <v>528.17070750819</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.4334132980933</v>
+        <v>477.7628364758515</v>
       </c>
       <c r="AD2" t="n">
-        <v>332428.2445377773</v>
+        <v>386020.8138223966</v>
       </c>
       <c r="AE2" t="n">
-        <v>454842.9898756837</v>
+        <v>528170.7075081901</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46840631369622e-06</v>
+        <v>3.856836174933478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.46940104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>411433.4132980934</v>
+        <v>477762.8364758515</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.3753258269511</v>
+        <v>427.0011312594334</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.4496635506279</v>
+        <v>584.2417857495523</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.2600816258165</v>
+        <v>528.4825697061107</v>
       </c>
       <c r="AD2" t="n">
-        <v>361375.3258269511</v>
+        <v>427001.1312594333</v>
       </c>
       <c r="AE2" t="n">
-        <v>494449.6635506279</v>
+        <v>584241.7857495523</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.174332304540819e-06</v>
+        <v>3.54345746212898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>447260.0816258165</v>
+        <v>528482.5697061106</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.9070053255282</v>
+        <v>745.4965147324984</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.9645630145183</v>
+        <v>1020.021220442047</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.3553134917678</v>
+        <v>922.6718267718313</v>
       </c>
       <c r="AD2" t="n">
-        <v>670907.0053255282</v>
+        <v>745496.5147324984</v>
       </c>
       <c r="AE2" t="n">
-        <v>917964.5630145182</v>
+        <v>1020021.220442047</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763421019200441e-06</v>
+        <v>2.60524436449203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>830355.3134917677</v>
+        <v>922671.8267718314</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.4212975651977</v>
+        <v>431.204560909076</v>
       </c>
       <c r="AB3" t="n">
-        <v>521.8774464487545</v>
+        <v>589.9931036384215</v>
       </c>
       <c r="AC3" t="n">
-        <v>472.0701954192811</v>
+        <v>533.6849898876915</v>
       </c>
       <c r="AD3" t="n">
-        <v>381421.2975651977</v>
+        <v>431204.560909076</v>
       </c>
       <c r="AE3" t="n">
-        <v>521877.4464487545</v>
+        <v>589993.1036384215</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.435622497787709e-06</v>
+        <v>3.598341925893863e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.16080729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>472070.1954192811</v>
+        <v>533684.9898876915</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.3701790981723</v>
+        <v>412.3652077181491</v>
       </c>
       <c r="AB4" t="n">
-        <v>484.8649127510504</v>
+        <v>564.2162694689911</v>
       </c>
       <c r="AC4" t="n">
-        <v>438.5900859902684</v>
+        <v>510.3682605933775</v>
       </c>
       <c r="AD4" t="n">
-        <v>354370.1790981723</v>
+        <v>412365.2077181491</v>
       </c>
       <c r="AE4" t="n">
-        <v>484864.9127510504</v>
+        <v>564216.2694689911</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.504457662383739e-06</v>
+        <v>3.700037676761118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>438590.0859902684</v>
+        <v>510368.2605933775</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.5531749992573</v>
+        <v>1058.37198624703</v>
       </c>
       <c r="AB2" t="n">
-        <v>1319.744207116819</v>
+        <v>1448.111243659859</v>
       </c>
       <c r="AC2" t="n">
-        <v>1193.789672262217</v>
+        <v>1309.905539001857</v>
       </c>
       <c r="AD2" t="n">
-        <v>964553.1749992573</v>
+        <v>1058371.98624703</v>
       </c>
       <c r="AE2" t="n">
-        <v>1319744.207116819</v>
+        <v>1448111.243659859</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.431304522889776e-06</v>
+        <v>2.078496080069916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1193789.672262217</v>
+        <v>1309905.539001857</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.5968692088456</v>
+        <v>555.2144977477716</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.0975006423157</v>
+        <v>759.6689701534192</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.380826896832</v>
+        <v>687.167229844072</v>
       </c>
       <c r="AD3" t="n">
-        <v>495596.8692088456</v>
+        <v>555214.4977477716</v>
       </c>
       <c r="AE3" t="n">
-        <v>678097.5006423157</v>
+        <v>759668.9701534192</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.145960384580613e-06</v>
+        <v>3.116297179254861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>613380.826896832</v>
+        <v>687167.229844072</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.0993351076044</v>
+        <v>446.7168741379793</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.6463879116125</v>
+        <v>611.2177349531673</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.0976800127017</v>
+        <v>552.8839721787151</v>
       </c>
       <c r="AD4" t="n">
-        <v>387099.3351076044</v>
+        <v>446716.8741379794</v>
       </c>
       <c r="AE4" t="n">
-        <v>529646.3879116125</v>
+        <v>611217.7349531674</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.426850220008163e-06</v>
+        <v>3.524196695067826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72786458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>479097.6800127017</v>
+        <v>552883.9721787152</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.2623436180579</v>
+        <v>436.8798826484327</v>
       </c>
       <c r="AB5" t="n">
-        <v>516.1869821781791</v>
+        <v>597.7583292197339</v>
       </c>
       <c r="AC5" t="n">
-        <v>466.9228210720725</v>
+        <v>540.7091132380862</v>
       </c>
       <c r="AD5" t="n">
-        <v>377262.3436180579</v>
+        <v>436879.8826484327</v>
       </c>
       <c r="AE5" t="n">
-        <v>516186.9821781791</v>
+        <v>597758.3292197339</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.459873754713834e-06</v>
+        <v>3.572152448953945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>466922.8210720725</v>
+        <v>540709.1132380861</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.1991111041463</v>
+        <v>488.3008225764262</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.2525205202742</v>
+        <v>668.1147277609792</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.6873676846784</v>
+        <v>604.3507958483804</v>
       </c>
       <c r="AD2" t="n">
-        <v>410199.1111041462</v>
+        <v>488300.8225764262</v>
       </c>
       <c r="AE2" t="n">
-        <v>561252.5205202742</v>
+        <v>668114.7277609792</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.879015140541469e-06</v>
+        <v>3.132206289361031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.123046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>507687.3676846784</v>
+        <v>604350.7958483803</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>394.0558539803114</v>
+        <v>457.5108409322668</v>
       </c>
       <c r="AB2" t="n">
-        <v>539.1646039332029</v>
+        <v>625.9865165173184</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.7074908560917</v>
+        <v>566.2432419584987</v>
       </c>
       <c r="AD2" t="n">
-        <v>394055.8539803114</v>
+        <v>457510.8409322668</v>
       </c>
       <c r="AE2" t="n">
-        <v>539164.6039332029</v>
+        <v>625986.5165173183</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317968023571746e-06</v>
+        <v>3.527730884013332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.677734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>487707.4908560917</v>
+        <v>566243.2419584987</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.6749181575397</v>
+        <v>392.1021127876586</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.6534760722602</v>
+        <v>536.4914090404372</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.6893548471372</v>
+        <v>485.2894219320387</v>
       </c>
       <c r="AD3" t="n">
-        <v>336674.9181575397</v>
+        <v>392102.1127876586</v>
       </c>
       <c r="AE3" t="n">
-        <v>460653.4760722602</v>
+        <v>536491.4090404372</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526678161227762e-06</v>
+        <v>3.8453682245325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>416689.3548471372</v>
+        <v>485289.4219320387</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.3511440107477</v>
+        <v>622.7617935334567</v>
       </c>
       <c r="AB2" t="n">
-        <v>751.6464708975125</v>
+        <v>852.0901602237674</v>
       </c>
       <c r="AC2" t="n">
-        <v>679.9103866575007</v>
+        <v>770.7678712480613</v>
       </c>
       <c r="AD2" t="n">
-        <v>549351.1440107477</v>
+        <v>622761.7935334567</v>
       </c>
       <c r="AE2" t="n">
-        <v>751646.4708975125</v>
+        <v>852090.1602237674</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.957711303678434e-06</v>
+        <v>2.922688141068017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.73177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>679910.3866575006</v>
+        <v>770767.8712480613</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.5784951927984</v>
+        <v>400.5759116195365</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.0452076713161</v>
+        <v>548.0856344398329</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.1349282023541</v>
+        <v>495.7771107319136</v>
       </c>
       <c r="AD3" t="n">
-        <v>351578.4951927984</v>
+        <v>400575.9116195365</v>
       </c>
       <c r="AE3" t="n">
-        <v>481045.207671316</v>
+        <v>548085.6344398329</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519486705016668e-06</v>
+        <v>3.761368645364005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>435134.9282023541</v>
+        <v>495777.1107319136</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.1441425654868</v>
+        <v>402.141558992225</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.1873954781157</v>
+        <v>550.2278222466325</v>
       </c>
       <c r="AC4" t="n">
-        <v>437.0726686114524</v>
+        <v>497.7148511410119</v>
       </c>
       <c r="AD4" t="n">
-        <v>353144.1425654868</v>
+        <v>402141.558992225</v>
       </c>
       <c r="AE4" t="n">
-        <v>483187.3954781157</v>
+        <v>550227.8222466325</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518983592531143e-06</v>
+        <v>3.760617543354068e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.00455729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>437072.6686114524</v>
+        <v>497714.8511410119</v>
       </c>
     </row>
   </sheetData>
